--- a/docs/Academia.xlsx
+++ b/docs/Academia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aboar\Documents\GitHub\ArthurLearnsR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2FCDD5-0538-4D0B-9B3E-7CF82C70CA04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0C35CC-ED8E-491A-8669-8C31B614BFFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{0579359D-F780-4F28-9CF9-1060AED785EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="8">
   <si>
     <t>Treino (Seq.)</t>
   </si>
@@ -141,36 +141,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -180,9 +150,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Duração</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -197,10 +164,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$G$2:$G$61</c:f>
+              <c:f>Planilha1!$G$2:$G$81</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>3.9583333333333304E-2</c:v>
                 </c:pt>
@@ -376,9 +343,69 @@
                   <c:v>4.513888888888884E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>5.9722222222222232E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.3888888888888995E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1133,10 +1160,10 @@
                   <c:v>4.513888888888884E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>5.9722222222222232E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>6.3888888888888995E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,6 +1172,100 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E3A2-4406-92FC-F077598CBA04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Treino 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$G$62:$G$81</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D048-4043-A928-B0CD861A7493}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2865,11 +2986,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FCD13C-4F1C-4BA1-87F3-753585DBAA85}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2946,7 +3067,7 @@
         <v>0.72013888888888899</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G61" si="0">F3-E3</f>
+        <f t="shared" ref="G3:G66" si="0">F3-E3</f>
         <v>6.2500000000000888E-3</v>
       </c>
     </row>
@@ -4304,9 +4425,18 @@
       <c r="C60" t="s">
         <v>2</v>
       </c>
+      <c r="D60" s="3">
+        <v>44865</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0.43472222222222223</v>
+      </c>
       <c r="G60" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.9722222222222232E-2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4319,8 +4449,318 @@
       <c r="C61" t="s">
         <v>3</v>
       </c>
+      <c r="D61" s="3">
+        <v>44866</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.68888888888888899</v>
+      </c>
       <c r="G61" s="6">
         <f t="shared" si="0"/>
+        <v>6.3888888888888995E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6">
+        <f t="shared" ref="G67:G81" si="1">F67-E67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="G80" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
